--- a/hasil_klasifikasi_data_testing.xlsx
+++ b/hasil_klasifikasi_data_testing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1764 +448,4176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>didebat pertama ini sdh keliatan wan abud alias tukang obat jenggot kumis anis baweldah memainkan kata manisnya yg membuat orang terbuai akan janji manisnya kang obat dilawan 😂😂😂</t>
+          <t>pak anis dihati rakyat</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>anis pandai cakap kosong 😂😂</t>
+          <t>banyak bicara kosong isinyasedikit bicara tapi pasti mantap pak probowo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>anies</t>
+          <t>sejujur nya gini ya saya dukung 02 karna bpak prabowo aja bukan karna gibranjujur ya itu gibran ga masuk dalam tipe saya secara politik apalgi mengurus indonesia seharusnya pasangan prabowo ini yg pas itu bpa anis cuman ini politik jdi pasangan masing2 agak ngawur</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>semangat pak aniespak prabowo dan pak ganjar 😍😍🇮🇩</t>
+          <t>tetap urutan no 2pokoknya satu kali no 2 tetap no 2pak prabowo and mas gibrantiada duanya</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>anies presiden indonesia 2024 aamiin</t>
+          <t>o h h h h h j j jjjjjjjm m m m m m m m m m nnjj lagu 19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>😂😂😂😂mau 1 putaran bagaimana dgan angin ga punya ktp😂😂😂😂😂 org dgan cara berbicara seperti si anis ini bisa memenangkan pemilihan presiden dgan 1 putaran😂😂😂😂mendingan si anis jd ketua rt d kompleksmu bro😂😂😂😂😂</t>
+          <t>wkwk sama aldisaputravm8us</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pak prabowo apa yg di maksudkan demokratik itu besar luas erti nya bukan hanya sekadar di beri posisi di dlm politik saja</t>
+          <t>😊😅t😢</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>semangat pak anies semoga terlantik di thn ini</t>
+          <t>mantap pak probowo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>abah anis abah anis apa sih yg abah anis mau rubah kan pohon 🌲 pohon di monas abah anis udah ubah menjadi gundul</t>
+          <t>solusi tanpa bukti itu nol 😂</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>visi misi ganjar malah cerita</t>
+          <t>betul pak prabiwo smua itu demi rak yat yg hidup nya pas san yg kaya tambah kaya yg mis kin hidupbiasa ajatapi kita rayat biasa aja tidak iri karna smuitu suh jln nya di atur sama yg kuasa yg penting alloh yg tau bagai mana kekal tidak nya buat yg baik dan tibaik🤲👍hidup yg peting berusaha demi sejengkal perut yg harus di isi bagi yg jujurmensukuri ridho nya allah</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bapak prabowo tegas daan tidak banyak bicara</t>
+          <t>😢</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pak anis janji palsu doankbau mulutnya 🤣🤣🤣</t>
+          <t>semoga para pekerja honor tersorot setelah 5 thn mengapdi dan semoga jasa honor di instalasi pemerintah bisa di bayar sesuai kebutuhan sandang dan pangan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>aku pilih h anies dan h muhaimin iskandar perbahan❤</t>
+          <t>diskusinya 1 3 adem2 aja drpd sm 2 wkw</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>itu pak anis gak malu apa mencalonkan diri pas jadi gubernur pernah di demo trus gimana klo nnti jadi persiden gimana😂</t>
+          <t>wkwkwk cuma pinter rangkai kata kata tapi kerjanya gimana ya cuma kebanyakang omong kerja nol hasil nol</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>insyaallah pak ganjar lebih jelas lebih cerdas lebih baik yakin dan layak jadi presiden 2024 no 3 unggul menang aamiin</t>
+          <t>orng emosi biasa xa orang jujur merdeka👍</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tetap kan bapak prabowo dan gibran</t>
+          <t>kan emg bener</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>🎉semangat bpk anis</t>
+          <t>kami masahrakat butuh bukti kami gk butuh omong doang tapi buktinya gak ada</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ganjar vs anis itu prinsip saya yang salah satu saya dukung</t>
+          <t>anis pasti kalah😂</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>menurut analis saya abang prabowo itu cenderung dalam politik dan belio salah dalam memili pasangan belio berharap dengan menggandeng gibran belio akan terpilih sebagai presiden tapi menurut hemat saya justru sebaliknya secara pribadi saya klir dengan abang prabowo tapi belum tentu pada pasangannya jika abang prabowo mengingat priode sebelumnya saat lawan jokowi yg puluhan kualisi partai pendukung sedangkan abang prabowo anya memiliki 4 kualisi partai pendukung saat itu aku mendukung belio sepenunya dan dipesan saya untuk belio saya berkata jangan takut dan gentar pada jokowi yg memiliki puluhan kualisi partai pendukung sekalipun kita hanya 5 kualisi partai yakinlah saya akan hubungi seluru keluarga dari sabang sampai merauke untuk dukung abang prabowo karena rakyat punya hati rakyat punya jiwa dan rakyat punya mata rakyat tahu mana yg benar mana yg salah disitu jika kita belajar dari pengalaman sebelumnya bahwa kemenangan kita bukanlah karena mereka kemenangan kita karena sebagian besar rakyat tak suka pada pemerintahan jokowi pada priode awal jadi apa yg abang prabowo arapkan dari gibrandan dipriode kedua itu saat abang prabowo lawan jokowi sebenarnya abang prabowo menang 5 persen dipitung cepat ditvone tapi kok setelah ada perundingan dari pihak pihak lawan abang kok seluru siaran tv lain meyiarkan jokowi menang 5 persen disitu saya sudah menilai kalau prabowo dicurangi bahkan pengiriman kotak surat suara yg membuktikan kemenangan prabowo dijagal dan gudang penyimpanan kotak surat suara dibakar dan apakah kemenangan terletak pada gibran putra jokowi dan untuk priode ini yg tadinya saya telah klir sekarang kami kecewa dan kami jadi enggan untuk mendukung abang ttd damsik jainudin soekarno sud putra</t>
+          <t>orang indo harus bisa baca karakter asli anies dia itu licik pinter ngomong tapi hasil kerja nol dan menghalalkan segala cara contoh waktu dia main politik agama dulu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sudahlah anis aja pisi misi sudah cukup</t>
+          <t>kalo korupsi benar2 di brantas tegas rakyat indonesia akan makmur sejahtera</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ganjar mantap❤</t>
+          <t>bisa aje bang jamedd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bau2nya sih bpk prabowo😂</t>
+          <t>anis ngmg doang gada bukti😂😂</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>tetap ganjar plg hebat dan jujur</t>
+          <t>httpsyoutubevbikaau7wkesiknbgajwjgbksozem</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>kok aku jijik ya lihat cara anis dan ganjar berbicara 😂😂</t>
+          <t>saya bangga sama mu pak probowo kami mau bapak jadi persiden amin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>pa bowo pk prabowo semangat pk</t>
+          <t>😊0😮</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>janga pili prabowo kalo prabowo jadi presiden bisa jadi pran dengan ngra yang dekat indonesia hati2 pili prabowo</t>
+          <t>smngat pa ganjar pranowo 😊😊</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>prabowo mau negakkan hukum wakil anda saja sudah melanggar hukum dari awal mau bilang netral emang gak sadar apa anda dari awal sampai ahkhir penhitungan suara lucu lucu</t>
+          <t>sudah sekolah sampe sarjanapun jd pengangguran krn tercut masa kerja 5thntrs mau apply lagi udh kepentok sm umur kk aku di usa udh 40thn msh bs kerja dgn gampang salam 62 😭😭</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>prabowo pls yg sopan kpd smua candidate bp annis itu bukan anak kecil panggil lbp anis dgn gentleman berdebat lah dgn beliau secara profesional</t>
+          <t>prabowo menang</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>prabowo_Netral</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>aku prnah dengar satu hadis nabi yg d riwayatkan bunyi hadist itujanganlah memberikan jabatan kepada org yg mnginginkan nya dlm hal ini mnurutku pak prabowo sangat bernafsu dari dulu mngingin kan jabatan makanya klu debat kbawa emosi kyk gk tnang gitu</t>
+          <t>010203 pak prabowo mas ganjar kita th lah pak anies naikan alis 🤔</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ya allah semoga pak prabowo dan pak gibran menjadi presiden ri</t>
+          <t>amin❤❤❤❤❤</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>emang pintar pa anis tapi bisa balek fakta</t>
+          <t>❤😂</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>all in prabowoo</t>
+          <t>semoga prediksi gusdur benar jatim pupuk memang ad tpi mahal non subsidi hanya yg punya kartu tani</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sebenarny saya bukan pihak siapa2 kl bagusny jadi peresiden lebi bagus bapa anies cerdas dia tapi krn ikut anak pak jokoi wakil parabouo kurasa jadi menang nnt parabouo krn banyak dukung pak jokoi</t>
+          <t>sok bangga anis baweldah gubernur pertama yg memberikan perizinan cuaaaxx</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>gak ada solusi dari pak ganjar ini cuman bilang saya akan bereskan terus hemhh capekk</t>
+          <t>pak anies keren bener2 calon pemimpin yg amanah</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pak anies memang idola ku</t>
+          <t>semua bacot kecuali pak perabowo klo pak perabowo naik pasti aman karna pak bowo berani di dalam negri dan di luar negri</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>insya allah smoga bpk prabowo mas gibran mau mengang kat tenaga guru honorer di seluruh indonesia baik sekolah negeri maupun sekolah yayasan</t>
+          <t>pak prabowo gk ngerti analogi pak anis cocoknya debat sma rocky gerung😅 mksd angin gk punya ktp tuh mksdnya nih masalah polusi itu bukan mutlak di jakarta tpi angin yg membawa emitan atau polutan itu ketika arah angin menuju jakarta maka alat pendeteksi udara kotor akan mendeteksi bahwa udara di jakarta sedang kotor kmudian saat arah angin menuju arah lain selain jakarta maka pendeteksi tidak mendeteksi udara jakarta kotor intinya masalah polusi udara itu sebabnya bukan mutlak karena polutan di jakarta saja tapi polutan dri purwakarta misal yg terbawa angin ke jakarta maka alat trsebut akan mendeteksi udara jakarta sdang kotor dan persentasenya naik atau diatas normal pak prabowo kn bertanya tantang cara pk anis mengatasi polusi udara dengan dana anggaran 80t smuanya sudah dijawab oleh pk anis tetapi dirasa pk prabowo kurang mengerti mksdnya secara logika sudah ada pnyampaian alat pendeteksi udara di jakarta memangnya itu gk pake duit😂 kmudian pk anis mngatakan kenaikan persentase orang jkt menggunakan kndaraan umum sudah meningkat artinya dana sbanyak 80t trsebut memang digunakan sbagaimana mestinya prtanyaan pk prabowo yg disoroti disini adalah kenapa udara jakarta kotor terus nah singkatnya itu krena arah angin yg dideteksi oleh alat pendeteksi makannya pk anis bilang angin tidak nemiliki ktp angin tidak punya identitas untuk mngenali arah angin yg mnuju jkt itu dri mana asalnya pk anis bukan avatar untuk bisa trus mengetahui asal angin dn mngendalikan elemen angin🤣 di akhir beliau mengatakan jika terpilih maka sluruh indonesia akan menggunakan sistem pendeteksi udara kotor ini kn ini hanya pendeteksi udara kotor jika persentasenya diatas normal maka akan dikatakan udara kotor makannya knapa ada saat jakarta bersih ada saat jakarta kotor 😂 inilah maksud pak anis tentang yg angin tidak pnya ktp yg malah diketawain krena mungkin wajar bbrapa kurang nangkep maksdnya beliau😂 jdi beliau ingin menyanggah pertanyaan pk prabowo yg mngatakan udara d jkt selalu kotor bukan begitu tpi trgantung arah angin dn persentase dri alat pendeteksi udara kotor salamakalsehat😂</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>suara dari nttganjar bohongsemua suaranya boooohong</t>
+          <t>pk anis gk ada aura2nya dikitpun😂</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bacot lo nis penghianat lu klo bukan pak prabowo ga mungkin jadi gubernur malah ngelunjak pengen jadi presiden</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>anies emang jago ngomong tp kerja nya masih diragukan</t>
+          <t>abbhhgbn mk</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>semoga pak anies menjadi presiden 2024 aamiin</t>
+          <t>5150 kena ulti langsung</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>anis mulut manisbukti kerjanya tidak nyata</t>
+          <t>pak prabowo sebagai menhan nyelesain papua ajh ga beres beres giman jadi presiden nyelesain berbagai maslah lainny</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>semuga pak anis jd present aamiin yaaroobb</t>
+          <t>semoga pak anies menjadi presiden 2024 aamiin</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>kerjakan kerjakan pala bapak kaw lah lumayan lah hiburan lihat ambisi nya si aniss edan</t>
+          <t>bapak kamu dukun yah kok bisa tahu hati seseorang</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>prabowo sedikit kata tp kreja nyata anis bayk mencela faktanya kerja nolll besarrr</t>
+          <t>✌🏽✌🏽✌🏽✌🏽✌🏽✌🏽✌🏽</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>anis cuma pinter ngomong waktu jadi gubernur dki banyak ngibul tidak sesuai fakta tapi sekarang kabar nya anis banyak hutang nyungsep ke got jadi gembel politik 🎉😂</t>
+          <t>debat capres 2019 jgbpk ini tensinya tinggi</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>prabowo pembunuh aktifis 19971998</t>
+          <t>bismillah pak prabowo gibran menang amin ya allah</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>prabowo_Netral</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>aku cinta prabowo kiw kiw</t>
+          <t>semoga pak ganjar pranowo yang nomer satu amin nyarobal alamin nyakalloh</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>pak anies slm perubahan ❤❤❤❤</t>
+          <t>prabowo pasti menang</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>prabowo_Netral</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>anis ini kebanyakan bahasa manis yg denger jadi pusing pak ganjar berputar2 gak tau isi nya apa pak prabowo tipe2 yang gak suka banyak ngomong yg penting liat nanti</t>
+          <t>siapa</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mas anisss😂😂😂</t>
+          <t>krn janji manis enak di dengar sulit di buktikan</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>prabowo itu munafi</t>
+          <t>prabowo pasti menang</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>prabowo_Netral</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>kudoakan pak anies tuhan campur tangan ya pak ga ada yg mustahil bagi tuhan jgn kuatir berdoa pasti bapak menang ❤</t>
+          <t>amiin</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>anis baswedan sip</t>
+          <t>tetap aamiin</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>pak anis menang lebih baik ke depan nya jadi pemimpin indonesia amin🙏</t>
+          <t>baru mulai udah menjelekan hadeh</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>parahprabowo menyerang pribadi anis baswedan</t>
+          <t>pak prabowo is the best pokoke😊</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>pak ganjar sy dari papua barat pak mohon izin sy sampaikan bahwa ketika pak dipilih jd presiden pak ingat ada perusahaan di masing masing daerah jgn yg kerjanya orang diluar papua</t>
+          <t>pak aniiiiiiisssspak anisss kalk emang angin ga punya ktp yah pak anis harus buat ktp buat angin dong😂😂😂</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10746 rupanya pprabowo lebih besar emosinya dari pada ilmunya😂</t>
+          <t>ganjar prowono</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>harus nya prabowo tuh udah peng siun ngomong nya udah marah2 aja cepet kesinggung lebih baik serahkan sama yg muda yg masih kuat untuk menjalan pemerintahan yg baik tegas jenius</t>
+          <t>semoga pa anies presiden 2024 aminnn perubahan 👍</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>emg pinter ngomong klo anis😂</t>
+          <t>dfdfgwfgsg gard gua hhkh</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sisiiii7 joged nga salah bro tapi kalo bisa dialong ngapain joged kwkwkww prabowo joged karena nga bisa dialong takut di tanya orang takut nga bisa jawab</t>
+          <t>wow anis pintar ngmong ya tpi kerja nol mw ketawa tpi takut dosa</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>prabowo saat jawab pertanyaan ganjar soal pengadilan ham dan menunjukan dimana kubur para korban prabowo tidak menjawab yg soal kuburan para korban</t>
+          <t>anis juga aku gk ush pamilo</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>semoga bpk parabowo menang soal tani pupuk penting buat makanan ke shtan smga prabowo swt di lindungi allah amin</t>
+          <t>😂😂😂😂</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>pak ganjar pisimisinya sudah lama terbentuk</t>
+          <t>pak anis baswedan 1 apa yang di katakan oleh pa prabwo benar 2 dengan beralasan pak anss dia mengejar demi kehiduoan dunia 3 ia meraih samoai ia dapatkan lebuh dari kepunyaan 4 itulah pam gantajr mundur demi kemuliaaan selama lamanya untuk jadi kebyataan benar 🌹🌹🌹🌹🌹🌹🌹🌹</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>pemimpin bukti ya prabowo yang lain ngomong doank bulsuttt</t>
+          <t>smart no 1 question and answer jelas masih sehat soalnya</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>​ alinmayda apa salahnya dalam berjoget slaah klo mengukapkan kebahagian hidup luh aja kali yang trlalu menyedihkan trs gak bisa nyari2 kesalahan dri bapak prabowo makanya nyari kesalahanya dlm berjoget 😂😂</t>
+          <t>ganteng pak anis rapi bange</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>pendukung pak aji prabowo mantap</t>
+          <t>pilihan cuma 1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>pahamin jgn langsung komen visi misi pak ganjar dia mendengarkan keluhan rakyat indonesiabocah wibuh bocah wibu pahamin dluin baru komen wibuu</t>
+          <t>anis cuma omong besar aja bukti zonk😅</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>prabowo menang</t>
+          <t>amiinn</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>semoga allah swt kabulkan insyaallah anies baswedan jadi presiden 2024aminkan semuanya</t>
+          <t>😂😂😂😂😂</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>prabowo tidak bnyak ngomong dia hnya ingin berdindak untuk indonesia ingin membuktikan bahwa beliaw rela mati demi indonesiajdi tidak perlu bnyak omong dan pa gibran jga begituu simpel pasti dan masuk akal smoga prabowo yng menjadi presiden❤</t>
+          <t>saya setuju ibu kota negara pindah ke kalimantan sebagai upaya salah satunya demi pemerataan pembangunan dan akses publik dari ujung barat dan timur tepat ditengah2 selain itu juga dapat memberikan ruang pembangunan ekonomi baru bagi masyarakat bagian timur dan tengah harapan kita kedepan para pejabat publik juga tdk mendominasi seperti di pulau jawa</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sekarang prabowo bukan waktu itu ngerti nggak sih ente</t>
+          <t>i😅</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>kemunafikan ada di dalam hati prabowo</t>
+          <t>jawa barat nga di sebut sama pk ganjar</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ini real penilaian adu gagasan dri semua kandidat tadi malam 1 yang paling memahami isi materi dan paling menguasai panggung saya rasa untuk saat ini cuma pak anies 2 prabowo masih belum mampu mengontrol emosi mengunakan penyerangan personal bukan berdasar pada kebijakankinerja kandidat cara ngomongnya masih terlalu dasarawam sehingga terdengar kurang berkualitas sebagai seorang elit politik 3 ganjar terkesan kaku dan masih terlihat bingung dalam mengunakan kosa kata sehingga terkesan cara komunikasinya seolah memaksakan agar terlihat cerdas namun overall masih bisa di pahami</t>
+          <t>rizkyputra8979 iya dimenangkan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>​​ sejarahtube1509 masih aja di tanyaa apa yg sudah di lakukan pak prabowo di negri ini bro ada hp kan lo search di internet lahh jgn cmn pandai merangkai kata kata kaya capres lo</t>
+          <t>prabowo mau negakkan hukum wakil anda saja sudah melanggar hukum dari awal mau bilang netral emang gak sadar apa anda dari awal sampai ahkhir penhitungan suara lucu lucu</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ganjar urusin aspal di jaih tengah saja tdk bisa</t>
+          <t>pembohong semua</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>alhmdllah sudah hadir sosok pemimpin yg adil cerdas smga pak anis mnjadi presiden indonesia inilah pmimpin yg kita dambakan</t>
+          <t>anies presiden indonesia 2024 aamiin</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>pk anis capres paling cerdas adil</t>
+          <t>pak prabowo yes pokoe maju pak bangsa ini butuh aksi bukan kalimat fijsi</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>prabowo pasti menang</t>
+          <t>wakanda no more indonesia forever slogan itu maksud nya gimana 🤔 wakanda is not even a real thing its a fiction mau nyalon jd president or movie actor pak anis 😁</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ok bpk anis baswedan jdi president indonesia amin</t>
+          <t>semua nya bagus cuman dalam pelaksanaan nya yg pasti susah dilakukan</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>betullllomongnya manisstlh jdi presiden zonk😅😅😅😅😅😅😅😅</t>
+          <t>tolong hukum di indonesia harus d tegakan yg bener2 jangan sampe rakyat kecil sering d peras oleh pihak kepolisian yg selalu meminta nominal uang yg sangat besar dan tidak d punyai rakyat jangan sampai kekuasan d salah gunakan kadianilah rakyat kecil yg hanya punya salah kecil yg harus d tukar uang sejumlah yg banyak jangan buat k polisi makan pun kita itu susah</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dr debat ini knp rasanya sgt srek klo pk anis jd mentri pendidikan lagi yak😂😂😂</t>
+          <t>sukses prab owo dan gibran menuju indonesia bersih dari koropsi jugamenuju indonesia maju amin2ya robbal alamin bravo ❤❤❤😂😂😂</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>seolah olah prabowo tdk punya bahan sma sekli😅😅😅</t>
+          <t>apaan makmur isinya kebanyakan chindo skrng di jakarta siapa itu pelaku ngizinin bangun pik</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>tadinya saya dukung prabowo tapi melihat gagasan dan pendapat anis top markotop yang merasa gagasan pendapat pemikiran anis top silahkan like</t>
+          <t>saya lebih terharu pd pak bowo dia tdk pntang mnyerah smpi 3 kli nyapres smoga kli ini pak bowo dan gibran yg mnjdikan lebih baik dan lbih maju jgn smpai indonesia banjir lg klu bs menurutku amin ya rob smoga diperbaiki pinggir sungai dibatasi dinding yg tinggi biar tdk kebanjiran 👍💪🇲🇨🥰</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>prabowo klok ngomong kesusahan</t>
+          <t>pmoli😊</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>udah deh menangkan prabowo aja udah bosan dgn basa basi model 2 org itu</t>
+          <t>semoga masyarakat tidak terpengaruh hanya dalam kualitas merangkai kata kata tetapi dapat melihat kerja nyata</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sok bangga anis baweldah gubernur pertama yg memberikan perizinan cuaaaxx</t>
+          <t>​ chaylin klo ga butuh jabatan ngapain nyapres sampe 3x berturutturut wakakak mikiiiirr</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>hidop prabowo gibran</t>
+          <t>rasain luh prabowo kena ulti jadi ayam sayur 🤣🤣</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>wakanda no more indonesia forever slogan itu maksud nya gimana 🤔 wakanda is not even a real thing its a fiction mau nyalon jd president or movie actor pak anis 😁</t>
+          <t>pak ganjar gaya bicaranya jelas ya mudah di mengerti</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>rasanya rakyat akan dibungkam ga ada kritik kl prabowo jd presdn</t>
+          <t>setuju</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>gwa gedeg ama jwban anies di menit ke 12400 masak ya yg dtnya tu apa jwabnya apa simpel kok klw trllu byk penyebab polutan y bkin sumber o2 nya jd lebih banyak entah dg menambah pohon2 yg mengalirkan o2 lebih byk atau apa kek gtu trus yg mslah d awal dia nanya ttg dana2 dari partai oposisi utk kampanye tu ya elah lupa diri banget sih jd gubernur emang dana lu dari mana sumbangan daun mati gtu mknya gwa dr awal gedeg ama si anis g tau trma kasih bnget pas mlih cak imin aja tu 3 hri sblmnya mendtangi sby dg menggandeng ahy jd cawapres ktnya akhirnya sampe sekarang berlalu aja tnpa ngmong apa2 k sby trus debat bhas2 etika tayiqqqq la etika lu sndri aj kosong</t>
+          <t>pak prabowo itu hanya pokus liat petani dan nelayan tpi gk pukus kepada masyarakat yg betul2 membutuhkan seperti gagasan pak anies jompo itu harus di sorot dan anak anak sekolah yg tdk mampu dari ekonomi yg lemah saya salut sama pak anies</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pak anies saya perhatikan kaya pembawa acara berita cocoknya maaf klu saya lihat klu bicara</t>
+          <t>ooh yg ssbar kamu pak probowo kamu mesti menang ini tahun dua orang tu mempersulit bapak ya sy kasih doa bapak dari jauh mesti bapak ini tahun jaji presiden amin</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>prabowo kenapa ya bawa bawa nama jokowi terus apa mau berlindung dan maju dibawah naungan jokowi pilpres kemaren gua berkoar2 dukung prabowo tapi dikali ini sangat tidak puas dengan pendapat2 nya 😪</t>
+          <t>harus nya prabowo tuh udah peng siun ngomong nya udah marah2 aja cepet kesinggung lebih baik serahkan sama yg muda yg masih kuat untuk menjalan pemerintahan yg baik tegas jenius</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>setuju sama pa prabowo saya lebih suka nada berbicara pa prabowo</t>
+          <t>nah ini</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>anis juga aku gk ush pamilo</t>
+          <t>kemunafikan ada di dalam hati prabowo</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>apa nya yg masih aman pak prabowo 😅</t>
+          <t>anis ini ngomong retorika pintar bicaramanisbahasa terlalu tinggi ngomongputarpusingdengar omongan retorikanya</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>untuk anakku nisa ayah komintar disini supaya kamu tau nanti kalau sudah dewasa kamu melihat ayah disini ikut serta mendukung bapak prabowo subianto ❤</t>
+          <t>benar sekali bapak prabowo</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>pak anis is the best insyaaallah no 1 menang 1 putaran masyarakat adil makmur n sejahtera akan terwujud 🤲 👍</t>
+          <t>politik indonesia lebih interlek lebih bersopan lebih matang drp politik malaysia politik malaysia byk fitnah peribadi dn byk mencela pegangan agama kafir mekafir dll</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>yg di sampaikan prabowo ini sevey ke lapangan apa bukti kan</t>
+          <t>p</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>dsiniyangvunggul prabowodan pak ganjarrrrr</t>
+          <t>pada triakk in maling apa pd lagi berebut suara hati rakyat sehsumpah ga paham emang lg pd di suruh milih capres no 01 atau capres no 02 yaa dgn ada nya berita heboh di video itu mending golfud aja udah indonesia lbh bermartabat 😁😁😁 ap kata dunia liat capresi dan cawapres nya model bikin rusuh gini 🤣🤣🤣🤣 hidup gol fuud kami lebihh baik gol fud biar dpt dapat ganjar an yg di ridhoi allah swt aaaammmiiinnn yaaa allah org di mana2 klo mau beriman kepada tuhan hrs gunakan akal dan nalar yg lurus serta cerdas jgn mau di budak in sama elektabilitas sehingga rakyat miskin yg kesulitan pupuk dll dgn tolol nya di jadikan nafsu mereka dgn dunia yg ud kaya raya masih aja kurang mulu sama harta 🤣🤣🤣🤣 itu ad bukti nya di jawa tengah yaa suruh no 2 kata nya 🤣🤣🤣🤣 nihh anggaran jakarta bekas no paslon 02 sama anggaran militer paslon 01 beda nya apa seh omon omonitu rahasia org serakah rakus jd rakyat miskin yg kelaparan jgn banyak taaaau 🤣🤣🤣🤣🤣 saya bicara krm ad rekam jejak mereka yg di bicara kan sama ratusan juta rakyat indonesia yg cerdas</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>alinmayda banyak bicara tanpa bukti tanpa tindakan buat apa dek dek blajar dlu dari masalalu pas anis sama pak ahok gimn 🤣</t>
+          <t>banyak bicara belum tentu bisa membuktikan</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>pak anies netral menyampaikan visi nya anies berhasil presiden indonesia</t>
+          <t>anis dangat pandai segalanya maka klo ada anggaranpasti bayarnya kelebihan anis makanyapantasnya jdi clo pelabuan aja kkkkkkk</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>anis pasti kalah😂</t>
+          <t>abis liat lagi debat capres ini 01 03 dengan pertanyaan2 yang sangat bodoh tidak masuk akal pantes aja hasil ending nya jauh dari ratarata yaa 🤣🤣🤣🤣</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>dari awal pilpres gak prnah setuju sama prabowo terlalu arogan dan emosi tidak terkontrol makanya dlu pilih jokowi jdi skrg pilihanku pak anies 🎉</t>
+          <t>aku prnah dengar satu hadis nabi yg d riwayatkan bunyi hadist itujanganlah memberikan jabatan kepada org yg mnginginkan nya dlm hal ini mnurutku pak prabowo sangat bernafsu dari dulu mngingin kan jabatan makanya klu debat kbawa emosi kyk gk tnang gitu</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ok pak prabowo yakin jadi persiden</t>
+          <t>1out putih out gemoy gasss</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>bedakan tni dengan orang biasa prabowo itu tegas karna memang jiwa tanggung jawab</t>
+          <t>5148</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>prabowo tank ganjar marksmen anis mage dari tipe ini ya harus puas dengan menu type yg yang ada tapi kalo untuk berhadapan dengan negara asing rasanya butuh sosok assasin dan jungler tidak bisa diremehkan karna kenyataannya ketahanan kita masih bergantung banyak pada negara lain baik pangan teknologi sdm alutsista dan masih banyak ketergantungan negara indonesia kepada negara lain jadi jangan hanya fokus pada rakyat kecil justru rakyat besar itu yang banyak menimbulkan masalah di negara ini jujur karakter opsi pilpres masa ini tidak cukup untuk masalah yg ada tapi ya inilah demokrasi yg penting tetap jalan bersama indonesia kita ❤</t>
+          <t>gk guna debat malah saling serang mnjatuhkan emosi yg pnting visi misi mreka baikbagus utk kmajuan bangsa tinggal di liat stlh menjalani mamputdk</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>amin pa anis</t>
+          <t>bismillah pak prabowo the next ri 1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>prabowo_Netral</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>bapa prabowo tlngin saya pa saya mohon bapa yg bs tlngin saya pa😭😭😭😭😭😭pa smg bp mslaikat plnlng saya pa</t>
+          <t>pak ganjar tolong kemiskinan di jawa tengah di kurangi dulusaya berdomisili di jawa tengah untuk cari makan saja susahumr nya juga masih sekecil itu</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>jdi untuk bpk anies baswedan ta prlu cape bapa ngomong panjang lebar ngibulin masyarakat dengn berkedok agama kasihan pak kasihan bp jdi gubernur sj udah menyusahkan masyarakat sebagian apa lagi klu bp jdi presiden pak🙏</t>
+          <t>prabowo ❤❤❤❤❤❤❤❤❤❤😊😊😊 sama pak ganjar ❤❤❤❤❤❤❤❤❤😊😊😊😊😊😊🎉🎉🎉🎉</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>amin bapak menang pemilu ini prabowo menang pemilu kali ini aku pilih sama prabowo kalinya enggak usah beli prabowo pilih anies aja aku pilih prabowo prabowo menang prabowo menang prabowo prabowo menang</t>
+          <t>rasanya negri ini akan dipersulit klo anis berkuasa yakin gw</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>prabowo menang</t>
+          <t>​ alinmayda biasanya yg banyak ngomong penipu itu nyata orang banyak bicara enak di dengar pasti ada maunya ujung2nya nipu</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>assalamualaikum abah anies yang kami hormati kami cintai semoga sehat selalu orang baik ya tetap orang baik</t>
+          <t>prabowo tidak bnyak ngomong dia hnya ingin berdindak untuk indonesia ingin membuktikan bahwa beliaw rela mati demi indonesiajdi tidak perlu bnyak omong dan pa gibran jga begituu simpel pasti dan masuk akal smoga prabowo yng menjadi presiden❤</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>anis cuma omong besar aja bukti zonk😅</t>
+          <t>10454</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>p anis ganteng cerdas santun amanah wibawa mantab</t>
+          <t>anis raja ngomong</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>prabowo bukan untuk berdebat tapi untuk memimpin</t>
+          <t>✌️🇮🇩 rafik 🤟😡👉✊ ☝️🤟</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>anis itu beriak air tanda nya tak dalam hanya kata kata doang banyak ludah</t>
+          <t>sepemikiran</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>wow anis pintar ngmong ya tpi kerja nol mw ketawa tpi takut dosa</t>
+          <t>iki capres nomor satu ini pinter ngomonge tapi nol</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>anis berwibawa pintar dan tanggap😊</t>
+          <t>betul bapak semangat ya pak</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>sikat koruptor pk ganjar pasangan anda kok nantivyang akan menang</t>
+          <t>pilih presiden yg bukan mau ngacak2 anggaran doang</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>​ royaayuni kamu mau bilang soal orang yang tes angkatan tpi gagal krna saingan nya pake orang dalamjaman nya pak prabowo jdi menhan peraturan dlm tni maupun polisi sistem orang dlm itu sdh di hapusmknya bnyk dengr berita mbak</t>
+          <t>bapak prabowo kalo jadi presiden pasti hevikrna suka ngelucujadi g akan asa bosen sma bapk prabowo ini😊</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>prabowo_Netral</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>prabowo siap lantik jadi presiden indonesia 👍👍👍</t>
+          <t>saya hanya bisa mendoakan semoga yg jadi presiden siapa pun semoga amanh tanghung jawab dunya akherat nya jujur cinta tanah air sayang kepada rakyat nya amiiiin 🤲</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>dengan ini membuktikan bahwa bapak prabowo ini tidak serius menjadi pemimpin berbicara tentang negara saja sikap seperti itu mau jadi apa negara ini</t>
+          <t>jangan lupa pak ganjar supaya harga bbm tetap sama diseluruh indonesia dan bersihkan indonesia dari korupsi sampai ke tingkat rt diseluruh indonesia</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>menit ke 5155 mantap pak prabowoceploss apa adanya😅</t>
+          <t>q ttp bpk prabowo pk anis banya janji janji biasanya cuma manis omonge</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>kaloayutetapdukungbpkhjprabowodnbpkghibraninsaallahamin</t>
+          <t>semangatsydoaknkpdcaprescawapres</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>best banget pak anies</t>
+          <t>anjir si bowo teriak2 tegakan konsitusi tapi capres nya malah melanggar😅</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>hanya pak jokowi yg bisa menghadapi bu mega walau sebagai anggota partai tapi saya belum yakin kalau pak anis ke pak paloh dan pak ganjar ke bu mega bisa menghadapi atasan partainya seperti pakjokowi just saying lets we think about it</t>
+          <t>​ndiboydl2tq7 gt bu bu bgtiu😮😂❤l😊</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>hidup bapak prabowo yang cerdas dan rendah hati</t>
+          <t>amin pa anis</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>pak ganjar haleluya</t>
+          <t>polusi di jakarta mungkin mau di buatin akte kelahiran 😂</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>alahhhh emang demokrasi nya hancur bapak anis kepilih bukan karena kepempimpinan jokowi atau dukungan prabowotapi seijin allah dengan jalan umat muslim memilih emang fase 4 seperti kata rosulullah adalah zaman sekarang dan alhamdulillah akan berubah ke fase 5fase islam lagi memimpin dunia</t>
+          <t>yg sy suka klau denger ada pemimpin yg mau berantas korupsi</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>saya cuma mau saran terkait gagasan yang diberikan oleh ganjar kan disitu ada yg membahas mengenai puskesmas nah yg saya ingin berikan pendapat itu mengenai rumah sakit dengan biaya parkirnya yg bisa dibilang lumayan mahal masa sekarang dihitungnya per jam misal dirumah sakit parkirnya nyampe 3 hari ya itu bisa memberatkan si pengunjung pasiennyasemoga siapa saja yang menjadi presiden bisa menghapuskan biaya parkir dengan perhitungan perjam kalo masih 5k nah masih normal kalo nyampe 25 atau 30 ribu perhari itu udh termasuk lumayan mahalitu saja si sarannya semoga bisa dipahami 🙏🏻</t>
+          <t>sabar sabar 😅</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>pak anis cerdas banget❤</t>
+          <t>​darwisparase</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>buktinya ganjar anis kmu kalah pilpres</t>
+          <t>tetap saya pilih no o2</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>anies emang cocok jadi presiden ri maju trus pak semoga terlantik di thn ini</t>
+          <t>pak anis semoga duduk</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>anis_Netral</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>pak prabowo subianto hormat sedangkan anies baswedan tidak disinikita bisa melihat sapa yang cocok untuk jadi presiden</t>
+          <t>aku pilih nomor 2 karena dia gemoy</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>keren prabowo emang jossss</t>
+          <t>selamat hari natal iniumur panjang</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>prabow0 prabowo prabowo</t>
+          <t>prabowo enggak rela mati dia</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>anissssss mana janji mu rumah dp 0 buat rakyat miskin mulut mu terlalu maniszsssssss</t>
+          <t>asalam muala ikum semoga negara indonesia selalu tetap jaya bahan makanan tetap bagus siapa pun yang akan jadi bapak presiden semoga negara indonesia selalu tetap dame dan selalu tetap merdeka selama lama nya dan akan berbahagia rakyatindonesia semua nya semoga allah memberi nya indonesia lebih baik semua nya yan dimama2 aminnn yarobalalaminnn😅</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>doa saya prabowo aja</t>
+          <t>cakep 👍</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>prabowo aku man uang 2juta</t>
+          <t>yang apa yang ngizinin semua chindo bangun tempat di pik</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>pendukung_prabowo</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>prabowooo❤</t>
+          <t>aku pendukung 02 pk gemoy semogga sehat selalu ya pk gemoy 02 idolaku mudahn trkabul pk jdi president aku hanya bisa pasrah pk udah aku buktikan hanya pk gemoy di hatiku ok pk gemoy 02 pilihanku</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>debat ini masih biasa2 ajyg lluar biasa itu anies baswedan pprabowo 😢😢😢</t>
+          <t>😊 wa aa aaa awak azi tu gggh gw​ wayansuarti6745</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>pak prabowo ini samat pintar ngeles kiat bicara tentang angin dulu maksut dan omongan pak anis itu jika tida adak angin mungkin polusi tidak akan menyebar kemana mana dan jika angin punya ktp otomatis dia akan bergerak mengiluti aturan layknya rakyat itu maksut dan tujauan wowo wowo salam akal sehat buat wowo dan para pemujamu😂😂</t>
+          <t>o😮</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>yuk 1 amin darisantriuntuknegeri kebangkitanislamindonesia</t>
+          <t>lalu bagaimana keadilan yang akan anda berikan bung anis hanyangeles saja jangankan mikir keadilan yang harusnya rakyat bisa makan berad bansosblho justru lenyap dan itu hanya tinggal menyampaikan lho kenapa bisa akarenabitulahbyangbadil menurutbungvanis apakah akan kitabpilih tidak kitabharus pilih yang lainyang tidak mementingkan perutvsendiri</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>semoga pak ganjar pranowo yang nomer satu amin nyarobal alamin nyakalloh</t>
+          <t>bu bu bu bu bu ob​ ceceptopik326</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>pak ganjar gaya bicaranya jelas ya mudah di mengerti</t>
+          <t>keren d suruh menanggapi malah nanya wkwk</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>prabowo lucu😂😂😂😂😂😢emosian banget sih pak prabowo😢😅😂tetap anis baswedan</t>
+          <t>yg di kilo meter 50 presiden jokowi pun taada bertindak</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>pendukung_anis</t>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>ketiga calon presiden sangat luar biasa</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>​​ sejarahtube1509 masih aja di tanyaa apa yg sudah di lakukan pak prabowo di negri ini bro ada hp kan lo search di internet lahh jgn cmn pandai merangkai kata kata kaya capres lo</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>pak anis janji palsu doankbau mulutnya 🤣🤣🤣</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>😊😊😊</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ganjar juos nomor 1</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>jangan hanya berbicara disaat akan pilpres tapi nanti para kadrun anti toleransi bermunculan yg sering buat keributan</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>andaikan kalau mau pengadaan seluruh alusista pertahanan negara secara new alias baru mempuni dari mana anggaran yg mempuni memangnya kementrian ini kan bikan semata mata hanyalah kementrian pertahanan kan tidak nantinya kementrian kementrian yang lainnya bagaimana jadi menyangkut pembelian alusista bekas itu sebelumnya kan sudah diadakan studi banding dan dipelajari sistim teknis yang baik secara terstruktur dan sistimatis sesuai penggunaan dari jenis alusista yg gunakan demi pertahanan nkri</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>pinter ngomong😂😂😂</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>semoga masyarakat tidak terpengaruh hanya dalam kualitas merangkai kata kata tetapi dapat melihat kerja nyata😊</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>berita</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>yaman no more</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>sy masih d posisi pilih no 2</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>alhmdllah sudah hadir sosok pemimpin yg adil cerdas smga pak anis mnjadi presiden indonesia inilah pmimpin yg kita dambakan</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>prabowooo❤</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>terlihat jelas si wowo asal ngomong sumpahnya sumpah palsuselama ini bapak kerja apa tidurkenapa tidak dulu wowo lo pertaruhkan nyawa andaomongan bpk lebih berharga sampah yg bertujuan merayu rakyat rakyat sdh gk bodoh wowotegakan apa pakberantas korupsi apa omong doang selama ini bpk kerja apa</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>pilian ku ya prabowo</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>masasiii</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>​ sakuliae7009 😢😢</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>anies jd presiden 2024 bismillah</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>mau dibanding pakai nama gemoy atau apapun percumakarna tujuannya hanya untuk menutupi karakter aslinya</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>badainingtyas9362 prestasinya baperan dan goyang gemoy hahaha😂😂😂😂 jgn jgn ada kelainan</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>kalah kan udahdiem aja lu</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ehh kok iya ya😂</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>bangga banget sama jawaban jawaban pak prabowo keliatan bisa menyelesaikan masalah dengan solusi bukan cuma asal cuap cuap🥰🥰</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>terpesona aku lihat pak anies ini berbicara</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>rasmanmaulana1859 ketiga calon semuanya menginginkan ketiga calon semuanya bernafsu ingin menjabat jika tidak menyukai tidak usah dipilih siapa yang anda sukai silahkan dipilih saya hanya ingin mengatakan kalau pak prabowo sebelum saya lahir beliau sudah merelakan jiwa dan raganya untuk bangsa negara rakyat tentunya termasuk orang tua saya dan kita semua saya selalu hormat kepada seorang prajurit beliau mungkin pemarah beliau mungkin tidak bisa mengontrol emosi seperti yang tampak tapi cobalah sedikit lebih mencari tau tentang nya agar bukan hanya keburukan yang terus anda pandang pada dirinya saya dulu tdk menyukai sikapnya nada bicaranya tapi semakin saya mencari tau tentang nya semakin saya melihat sisi lain dari sosok beliau salam bersaudara silahkan memilih sesuai hati nurani tidak ada permusuhan di antara kita 🙏🙏</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>angin tdak punya ktp</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>dsiniyangvunggul prabowodan pak ganjarrrrr</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2428</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>pokok e mas gibran oyes❤</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>bagus sekali</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>kesipulan prediksj1koyotukangjamu 2pencitraan3tanggungjawabapatugasdanwewenang</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>semoga bpk parabowo menang soal tani pupuk penting buat makanan ke shtan smga prabowo swt di lindungi allah amin</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>sehat selalu bapak prabowo biarkan muka mereka yg tebal itu yg cuma hanya omong itu fokus tujuan tulus untuk republik indonesia untuk rakyat mu sehat selalu pak bowo gemoy cirebon untuk bapak</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>😂😂😂😂mau 1 putaran bagaimana dgan angin ga punya ktp😂😂😂😂😂 org dgan cara berbicara seperti si anis ini bisa memenangkan pemilihan presiden dgan 1 putaran😂😂😂😂mendingan si anis jd ketua rt d kompleksmu bro😂😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>bohong kou</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>prabowo menang hahahahahahahahahaha nangis luuuuuu</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>prabowo_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>apalah waktu 1 detik lagi di bilang masih ada waktu mau ngomong apa waktu 12 detik</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ganjar gk pya otak kali ya mimpin wilayah sndiri aja gk bcus mau mimpin smua wilayah wkwkwk</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>anies emang cocok jadi presiden ri maju trus pak semoga terlantik di thn ini</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>sorry yeee</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>aq yakin byk yg pilih mas gibran❤❤❤❤❤❤❤❤❤❤pokok e pak prabowoo oyessssbolone jokowi</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>saya lebih condong sma pak prabowosoalx dy org cukup berpengalamantegasdisiplindn dy seorang mantan tentara sngat cocok jadi presiden</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>walekumsalam dia pandai berkata2 tetep pak brabowo</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>udah ini bukan kita balik aja yok ke rell masing jadi fanatik itu gak enak wee mending kerja aaja jagan mikir duit capres😂😂 saya jelas golput groub gak ada yang bisa ngeleuluhin pikiran dan mental dan perasan saya soal presiden nantinya 3 orang tsb ngak enak miloh mending golput😂</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>gak usah banyak omong buktikan nanti klu gk bisa berarti bohooooong</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>01oke❤🙏👍👍</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>❤❤❤❤❤❤❤❤❤❤😭😭😭😭😭😭😭😭😭😭🙏🙏🙏🙏🙏🙏🙏🙏🙏🙏</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>slam bpk prabowoo yg lainya blm mmpu semngat pak prabowoo</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>anjing 😂😂</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>bener banget</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>pak prabowo mantap👍</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>prabowo_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>pak ganjar tolong kemiskinan di jawa tengah di kurangi dulusaya berdomisili di jawa tengah untuk cari makan saja susahumr nya juga masih sekecil itu</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>insaallah pak prabowo presiden ri 20242029 aamiiin</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>wakanda no more indonesia forever 🇲🇨☝️</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>pak prabowo subianto hormat sedangkan anies baswedan tidak disinikita bisa melihat sapa yang cocok untuk jadi presiden</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>prabowo ❤❤</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>prabowo_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>calon persiden indonesia yg mendukung rohingya yg mau merebut pulo indonesia jañgan di pilih rakyat indonesia waspada kalo sampe di bagi orang asing bakalan perang sodara itulah indonesia mahasiswa indonesia waspada</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ganjar best</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>pak prabowo jauh dari korupsi😊</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>tetap ganjar plg hebat dan jujur</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>amin bapak menang pemilu ini prabowo menang pemilu kali ini aku pilih sama prabowo kalinya enggak usah beli prabowo pilih anies aja aku pilih prabowo prabowo menang prabowo menang prabowo prabowo menang</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>prabowo_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>kasihan sekali panies gak punyasemangat sama sekali apa belum dapat kursi mentri pendidikan lagi p anies</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>jawaban pak anies cerdas</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>walou kita beda duknga tapi satu tujuan untuk indonesia maju mari kita sukses kan pemilu dengan damai</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>untuk anakku nisa ayah komintar disini supaya kamu tau nanti kalau sudah dewasa kamu melihat ayah disini ikut serta mendukung bapak prabowo subianto ❤</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>lanjutksn pk ganjar aku cocok sama pk gjryg merakyat pd rakyat bawahan</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>prabowo pembunuh aktifis 19971998</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>belum barusemester3nantiyrajahbelum</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>kalau aq pilih pak prabowo gibran 👍👍</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>nonton ini lagi buat mastiin kalau jawaban bpk anies jelas dan berdasarkan fakta data dan ternyata benarr ❤❤</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>dri dlu pengacara gratis udh ada keles</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>brabowo presiden negara maju negara kuat</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>kasian pak ganjar</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>setuju pk perobowo menang pk perobowo</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>sd biasa ga bawah gaarss dan omongan inni jatus di imgat da dilakssmakan minimal yh omongin dan yg lain</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>❤</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>l05kfc</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>😊</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>yang tepat sekarang banyakin kerja bukan bnyak bicara apalagi pintar bicara 😊</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>😅</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>dan akhirnya anisa nyungsep tak seseuai yank anda ucapkannanis itu kacang lupa kulitnyaklo gak percaya bukak saja datanya 😅😅😅</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>tetap no 2 se7</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>kote singkawang punye cerite</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>pak anis cmn pintar bicara sj urus jakarta sj tidsk beres</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>pak anies s3 ya</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>tanah seluas 3400 ribu hktr kalo di ubengi dg pake jl kaki kira berapa jam ya luur</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>eyang wowo ga ada persiapan debat g kya yg lain cuma dawh dwoh tok</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>lah kan sekarang semuanya emang seharusnya ngomong aja dulu sepuasnyakalo minta buktinya ya besok tunggu jadi haduh² pikir baik² lagi ya</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>02 badut logika cacat jadi presiden asal banyak kata ditanya ini dijawab itu belum lagi jago joget2 bagi2 duit 100k di gbk</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>nol bekerja angin gg punya ktp 😂</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>pak prabowo❤❤</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>prabowo_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>bersatukitateguhberpisahkitarindumasabersamaduluakuigintetapsamaindonesiacutmurnilandengsigli</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>selamat pak prabowo gemoyyy❤</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>saya nyakin dengan terpilihnya bapak prabowo indonesia bakalan majuall in no 2 yg ga suka koar²❤bdw semangat abgku</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>mau siapapun president nya tetep aja saya jadi babu di arab enak jaman suharto tkw jarang sekarang makin susah</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>saya malah seneng pas debat wakil presiden masih ada yg bisa masuk di akal pak amin kebanyakan bilang “selepet” pak mahfud kebanyakan “selesai” pak gibrab “langsung ulti ke solusi tepat ngomong jelas ada isinya “ mungkin udah saatnya sekarang generasi muda yg maju</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>pak ganjar tolong kemiskinan di jawa tengah di kurangi dulusaya berdomisili di jawa tengah untuk cari makan saja susahumr nya juga masih sekecil itu</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>no 3 6g terbaik❤❤❤</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>point masalah perijinan rumah ibadah jgn salah persepsi proses perijinan sdh dibuatkan lebih dahulu oleh gubernur pengganti basuki dikenal dgn ahok gubernur anies hanya melanjutkan apa yg sdh di sahkan dalam pergub</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ibarat kerupuk beliau ud melempem masuk angin 😂😂</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>emosi tegas sama emosi amarah gak sama kak kalau orang gak bisa membedakan kedua sifat itu kedengaran kalau emosi dalam arti marah ini bukan saya membela no 2 ya karna q pun juga gitu sifatnya emosi di tuntut karna tegas beda lagi sama emosi karna marah</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>​ ceceptopik326 itu adalah wa r ui lj cd a di hi guys 😊</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>gw gak peduli dari semua paslon yang gw mau kakek gw jadi presiden ri 2024 pilih capres no 4 kakek sugiono</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>àaaàaàqq</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>tipu pa prabowo</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>prabowo_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>pak anies saya perhatikan kaya pembawa acara berita cocoknya maaf klu saya lihat klu bicara</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>barakallah pa annis</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>pak prabowo apa yg di maksudkan demokratik itu besar luas erti nya bukan hanya sekadar di beri posisi di dlm politik saja</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>bismillah smoga nyata uang 550 juta rupiah diantar ke rumah hamba malam ini stlh mndengarkan lantunan dzikir tsb amin main yra 🤲🤲</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>pertanyaannya apa jawabannya apa 😂</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>kayaknya 02 yang akan menang di pemilu 2024 gw berani bertaruh</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>awokwok😂😂😂</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>hi hi gua sih ogah</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>apapun yg terbaik utk memimpin ri sebenarnya hanya bpk prof dr anes rasyid baswedan dan yg terburuk adalah prabowoh</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>parahprabowo menyerang pribadi anis baswedan</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>akankan hukum di tekut seperti bunga 0 persen</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>hanya pak bowo yg bisa mimpin indonesia</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>hutannya gmn paru paru dunia lho udh bukan paru paru indonesia</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>lll i</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>siapapun yg mnjabat srmoga indonesia bs lbh baik dn jngn cm janji aza aminnn</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>anissssss mana janji mu rumah dp 0 buat rakyat miskin mulut mu terlalu maniszsssssss</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>moderator cowo nya keren tegas saat memberi penjelasan di sesi dimana harus memberi tanggapan bukan pertanyaan thes best moderator❤😊</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>apa nya yg masih aman pak prabowo 😅</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>sangat manis sekali dari pak anies masalah agama ini yg benar menjalan panca sila yg baik sayangnya waktu pembukaan salamnya tidak semua agama sebagaimana no urut 2 dan 3 berarti anies hanya setengah hati apalagi tidak mau meneruskan ikn sy serukan rakyat kalimantan jangan mau memilih orang yg tidak senang dgn ikn</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>lll0l😢uripwpp0​ nanangkole1555</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>siap prabowo mju trus sht sllu amiin</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>anis terllu teoritis saya ragu untuk prakteknya sepertinya belum tentu bisa klpun jadi presiden pinter omongnya tpi realisasi tidak yakin</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>seolah olah prabowo tdk punya bahan sma sekli😅😅😅</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>semoga mennang pak ganjar ❤</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>loe gak nyampe otak nya ye siapa gubernur yang mampu mengendalikan alam jokowi aja gagal kasih solusi macet dan banjir di jakarta koknegara maju sekelas jepang dan amerika aja masih kesulitan bencana alam kokjepang kesulitan mengatasi gempa setiap tahunnya amerika kesulitan menangani badai setiap tahun nyachina polusi udara nya jauh lebih parah macet nya jauh lebih parah</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>wowsiapakurinduganjarjalanapasalkiprankurinduiapasalrindubuatsaiyasamuatawlawngbuleluuharikabuatkanapasalsakarangmohlakimykamalmukasiakancintaawrangmukasitokasiapakahtipubuatsudakuciarikubatulawrangmohmuganjarbuatawrangkanmeledudutmuphotomohlacekapkabuatangmuhahalumamsertamu</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>1❤1</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>prabowo sedikit kata tp kreja nyata anis bayk mencela faktanya kerja nolll besarrr</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>ganjar pranowo the best</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>😢belum nantiy banyak sahyingan uses dekayi origin tayu filihahn3 nantiy yahbelumbanyak manaterfilihjadirraja 1</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>saya terlambat nonton debat ini ternyata ada pertunjukan yang di tunjukkan oleh pak prabowo kepada publik bahwa pak brabowo tidak beretika 👎</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>setuju mirip alm bpkku jg klo bicara lantang apa adanya nga kek calon lain banyak rangkaian yg kek ngga dari hati terdalam 😭😭😭</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>guru swasta di kota smg gaji masih jauh dr umk dan sudah beberapa kali kami sampaikn ke dinas terkait tpi sampai skrg belum ada tindakan yg berarti mojon kesejahteraan guru di perhatikan</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>😊</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>prabowo tuhan berkati</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>aamiin ya allah 🤲🤲</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>maaf sya pilih pak jokowi terbaik</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>pak prabowo presiden 2024❤</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>prabowo_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>bagus sekali</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>mcm cara orang agar dapat mendapatkan suara rakyatjanji ini lah janji itu la ujung ujungnya korupsi</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>jurus maut masuk hrreeee</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
           <t>hidupbpkprabowogibran</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>pendukung_anis</t>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>inshaallah pak anies menang aminn</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>slmt berbahagia dlm ramgka pemilu 14 peb 2024 semoga ada damai sejatera amin</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>pak prabowo dan pak jokowidodo mumpun pemilu presiden 2024 sampai 2abad24 tahun akan datang sehingga pakai semen di cor buat kantor gedung putih di indonesia supaya bersama ahok cor buat bekerja2024 🙏🙏🙏🙏</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>negara ini bukan negara kerajaan setelah bapa anak lagi kemudian kami tidak suka pemimpin yang hadir dari otoriter</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>blm selesai euy pemilihan teh hoyo gera menting keun ekonomi kha</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>bagus banger semua calon kalau kompak</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>pak prabowo ini samat pintar ngeles kiat bicara tentang angin dulu maksut dan omongan pak anis itu jika tida adak angin mungkin polusi tidak akan menyebar kemana mana dan jika angin punya ktp otomatis dia akan bergerak mengiluti aturan layknya rakyat itu maksut dan tujauan wowo wowo salam akal sehat buat wowo dan para pemujamu😂😂</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>744 750 ❤</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>saling serang menjatuh kan untuk ri 1 entut</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>tidak semua manusia memilih anis</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>wzwxfgfxv</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>mas anisss😂😂😂</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>anies emang jago ngomong tp kerja nya masih diragukan</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>kaga nyambung ko jadi ke ordal aneh niss niss</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>ini ko malakampanyedi gedungk kpuga jelas yg kami inginkan ituproram kerja snda2nanti bukan debat yg kami butuhkan itu visi dan misi anda2 pbilasudaduduk jadi org o1republikini apa apa rgram kerja and22sbukan obral janji2palsuanda2mohon didi baca ya apa yg ubapaedanpalamu ygdi uba</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>​ alfianinarti7033 q</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>bpk prabowo jgn keu pancing emosi seruruh dunia pasti bpk yg persiden</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>bpk prabowo is the best……❤</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>ketiga colon pemimpin ini bagus harus bersatu</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>mantap pak prowo</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>masingmasing mereka mempunyai keinginan untuk negara kita jadi baik doaku siapapun yg terpilih nantinya semoga sukses dan lancar 🙏🙏🙏</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>ganjar aja</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ah pk anis seukarang ngmg begitu nnt mah antek bpk lain lg</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>prabowo saat jawab pertanyaan ganjar soal pengadilan ham dan menunjukan dimana kubur para korban prabowo tidak menjawab yg soal kuburan para korban</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>kepada pak ganjar sayangnya apabila yang memimpin masih tetap pdip semua kesenjangan itu tidak berhenti tapi malah berlanjut seperti yang telah terjadi pada masa 2periode terakhir</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>itulah jiwa tni dari jiwa pa prabowo💪👍👍👍</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>ngaco bangun istana ikn tp perekonomian kota nanti ga diurus krn tersedot dananya ke ikn apa yg disebut pemerataan tong pemerataan kantong lu doank krn dikasi amplop 😂</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>hhhhh lucu hatinya baik tdk mgkin mejegal lawan menerobos lampu merah sllu tetap dlm pendirianya bukn berpindah temapt😂😂😂</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>oo iya 99⁹999😊😊⁹😊😊</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>bp prabowo 👍👍👍🌹🌹🌹</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>prabowo_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>menit ke 5155 mantap pak prabowoceploss apa adanya😅</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>nomor 2</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>pak prabowo mantap top3 cara menjawab dr angka 1 dan pak ganjar adem dan sejuk cara menjawab</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>bak barom monag</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>aminn alhamdulilah menang 🤲✌️</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>aduh mundur ajalah wowo malu in buanget ei</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>prabowo semoga jadi presiden</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>ngomongne tentang korupsi seng korupsi wong e melok nyalon😂😂</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>tanpa pindah ibukota jadi ikn juga pemerataan pembangunan khususnya sekolah dan lainlain lain akan lebih baik di kalimantan di proker 01 ikn bikin tempat hanya untuk pemerintah</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>semangat pakprabowo kita siap mendukungmu</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>tah anis dengerin coy</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>5226 sok galak terlalu pede yg pd akhirnya malah blunder berbalik menyerang diri sendiri istilahnya senjata makan jenderal pecatan 😅 dan hanya senyam senyum sinis geregetan menahan esmosi 😂</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>butuh pemimpin yg serius ngurus dan melindungi rakyat nya</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>makmur apa dimana uang dki 80 t 😅😢</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>hidup prabowooooo</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>bismilahirohmanirohimkumaupinturumahkukokelatamin</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>bukn emosi itu emang jiwa tni bro</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>penter omong tpi nyatanya zonx besar anes 😂😂</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>kita angkaaat mahfud untuk menuntaskan pelanggaran ham 65 itu tujuan utama kita hidup ganjar hidup mahfud</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ganjar vs anis itu prinsip saya yang salah satu saya dukung</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>presiden anti korupsicm bpk jokowi😅😅😅😅😅😅</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>pintar ngomong doang tapi tdk mengerti omongn nya sendiri semoga pk prabowo jd presiden indonesiapk anis bisanya pitnah doang</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>anis_Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>hanya awlloh yg tahu semuanya semogga trsemogakn pk bowo</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>random_Netral</t>
         </is>
       </c>
     </row>
